--- a/PythonProjectDataset.xlsx
+++ b/PythonProjectDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukep\Documents\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4225111-0E04-49C2-9508-08C8D1296083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933440F4-916A-4CBA-89A3-07BF45605635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A675823-8B8F-4073-814D-D801FD81B268}"/>
   </bookViews>
@@ -344,8 +344,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +664,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +673,7 @@
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
@@ -690,7 +691,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -713,7 +714,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2017</v>
       </c>
       <c r="F2" t="s">
@@ -736,7 +737,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2018</v>
       </c>
       <c r="F3" t="s">
@@ -759,7 +760,7 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>2017</v>
       </c>
       <c r="F4" t="s">
@@ -782,7 +783,7 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2015</v>
       </c>
       <c r="F5" t="s">
@@ -805,7 +806,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2019</v>
       </c>
       <c r="F6" t="s">
@@ -828,7 +829,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2018</v>
       </c>
       <c r="F7" t="s">
@@ -851,7 +852,7 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2020</v>
       </c>
       <c r="F8" t="s">
@@ -874,7 +875,7 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2015</v>
       </c>
       <c r="F9" t="s">
@@ -897,7 +898,7 @@
       <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2019</v>
       </c>
       <c r="F10" t="s">
@@ -920,7 +921,7 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2018</v>
       </c>
       <c r="F11" t="s">
@@ -943,7 +944,7 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2015</v>
       </c>
       <c r="F12" t="s">
@@ -966,7 +967,7 @@
       <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>2020</v>
       </c>
       <c r="F13" t="s">
@@ -989,7 +990,7 @@
       <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2020</v>
       </c>
       <c r="F14" t="s">
@@ -1012,7 +1013,7 @@
       <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>2020</v>
       </c>
       <c r="F15" t="s">
@@ -1035,7 +1036,7 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2017</v>
       </c>
       <c r="F16" t="s">
@@ -1058,7 +1059,7 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>2016</v>
       </c>
       <c r="F17" t="s">
@@ -1081,7 +1082,7 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>2016</v>
       </c>
       <c r="F18" t="s">
@@ -1104,7 +1105,7 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>2019</v>
       </c>
       <c r="F19" t="s">
@@ -1127,7 +1128,7 @@
       <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>2019</v>
       </c>
       <c r="F20" t="s">
@@ -1150,7 +1151,7 @@
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>2016</v>
       </c>
       <c r="F21" t="s">
@@ -1173,7 +1174,7 @@
       <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>2018</v>
       </c>
       <c r="F22" t="s">
@@ -1196,7 +1197,7 @@
       <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>2018</v>
       </c>
       <c r="F23" t="s">
@@ -1219,7 +1220,7 @@
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>2015</v>
       </c>
       <c r="F24" t="s">
@@ -1242,7 +1243,7 @@
       <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>2020</v>
       </c>
       <c r="F25" t="s">

--- a/PythonProjectDataset.xlsx
+++ b/PythonProjectDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukep\Documents\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933440F4-916A-4CBA-89A3-07BF45605635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112F18AC-62E7-4859-A62C-EDF33DD5E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A675823-8B8F-4073-814D-D801FD81B268}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>Company Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>State/Province</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -68,18 +65,12 @@
     <t>Beef</t>
   </si>
   <si>
-    <t>Central</t>
-  </si>
-  <si>
     <t>BioBQ</t>
   </si>
   <si>
     <t>Austin</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>Emeryville</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Series B</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>Non equity assistance</t>
   </si>
   <si>
-    <t>Funding Type</t>
-  </si>
-  <si>
     <t>Animal Product</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>Seattle</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Horns</t>
   </si>
   <si>
@@ -128,9 +110,6 @@
     <t>Toronto</t>
   </si>
   <si>
-    <t>Ontario</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -140,9 +119,6 @@
     <t>Jersey City</t>
   </si>
   <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -152,9 +128,6 @@
     <t>Umami Bioworks</t>
   </si>
   <si>
-    <t>Central Region</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -182,9 +155,6 @@
     <t>Cellmeat</t>
   </si>
   <si>
-    <t>Yangcheon-gu</t>
-  </si>
-  <si>
     <t>Seoul</t>
   </si>
   <si>
@@ -203,9 +173,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>North India</t>
-  </si>
-  <si>
     <t>Seed</t>
   </si>
   <si>
@@ -215,9 +182,6 @@
     <t>Tel Aviv</t>
   </si>
   <si>
-    <t>Gush Dan</t>
-  </si>
-  <si>
     <t>CellX</t>
   </si>
   <si>
@@ -257,9 +221,6 @@
     <t>Antwerpen</t>
   </si>
   <si>
-    <t>Flanders</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -278,9 +239,6 @@
     <t>Delft</t>
   </si>
   <si>
-    <t>South Holland</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -290,9 +248,6 @@
     <t>Tokyo</t>
   </si>
   <si>
-    <t>Kanagawa</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -305,10 +260,16 @@
     <t>Fat</t>
   </si>
   <si>
-    <t>Greater London</t>
-  </si>
-  <si>
     <t>England</t>
+  </si>
+  <si>
+    <t>Funding Stage</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -661,24 +622,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5399B68F-FA2F-41DB-9AAF-068AB530AF62}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,569 +648,644 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2017</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>31.895119407184801</v>
+      </c>
+      <c r="H2">
+        <v>34.813211660770698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>30.283349370722899</v>
+      </c>
+      <c r="H3">
+        <v>-97.742025094920905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>37.839423821309097</v>
+      </c>
+      <c r="H4">
+        <v>-122.28932486626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>47.608757289903899</v>
+      </c>
+      <c r="H5">
+        <v>-122.320790346471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>43.656552974891198</v>
+      </c>
+      <c r="H6">
+        <v>-79.378757572822096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
         <v>2018</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>40.7162559750982</v>
+      </c>
+      <c r="H7">
+        <v>-74.0447017500871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G8">
+        <v>1.2953081878300701</v>
+      </c>
+      <c r="H8">
+        <v>103.791844960031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>37.873324393157702</v>
+      </c>
+      <c r="H9">
+        <v>-122.271741165973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>37.558773757468799</v>
+      </c>
+      <c r="H10">
+        <v>126.991977877735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>28.647298582214798</v>
+      </c>
+      <c r="H11">
+        <v>77.196164459443096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>32.091395150738499</v>
+      </c>
+      <c r="H12">
+        <v>34.783165960469297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>31.279013269345199</v>
+      </c>
+      <c r="H13">
+        <v>121.49573018755601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>31.279013269345199</v>
+      </c>
+      <c r="H14">
+        <v>121.49573018755601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>31.279013269345199</v>
+      </c>
+      <c r="H15">
+        <v>121.49573018755601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>32.7594695784924</v>
+      </c>
+      <c r="H16">
+        <v>-117.12826511190499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>37.776669105342201</v>
+      </c>
+      <c r="H17">
+        <v>-122.42112405171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>37.338987923376898</v>
+      </c>
+      <c r="H18">
+        <v>-121.89301475835499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>51.225115984541802</v>
+      </c>
+      <c r="H19">
+        <v>4.4065134358927702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20">
+        <v>51.225115984541802</v>
+      </c>
+      <c r="H20">
+        <v>4.4065134358927702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>37.780434242141602</v>
+      </c>
+      <c r="H21">
+        <v>-122.280180322332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>52.010940360835697</v>
+      </c>
+      <c r="H22">
+        <v>4.3563156235397402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>52.010940360835697</v>
+      </c>
+      <c r="H23">
+        <v>4.3563156235397402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1">
         <v>2015</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24">
+        <v>35.707086435742802</v>
+      </c>
+      <c r="H24">
+        <v>139.72227074900701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1">
         <v>2020</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
+      <c r="G25">
+        <v>51.522117580238302</v>
+      </c>
+      <c r="H25">
+        <v>-0.116715828636746</v>
       </c>
     </row>
   </sheetData>

--- a/PythonProjectDataset.xlsx
+++ b/PythonProjectDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukep\Documents\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112F18AC-62E7-4859-A62C-EDF33DD5E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0567A86-21AC-4CC4-84F0-E2B5395FA899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A675823-8B8F-4073-814D-D801FD81B268}"/>
   </bookViews>
